--- a/stock/data/SK.xlsx
+++ b/stock/data/SK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3550"/>
+  <dimension ref="A1:G3583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82095,10 +82095,769 @@
         <v>178600</v>
       </c>
       <c r="F3550" t="n">
-        <v>157596</v>
+        <v>157851</v>
       </c>
       <c r="G3550" t="n">
         <v>-2.190580503833516</v>
+      </c>
+    </row>
+    <row r="3551">
+      <c r="A3551" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B3551" t="n">
+        <v>179900</v>
+      </c>
+      <c r="C3551" t="n">
+        <v>180000</v>
+      </c>
+      <c r="D3551" t="n">
+        <v>174400</v>
+      </c>
+      <c r="E3551" t="n">
+        <v>177000</v>
+      </c>
+      <c r="F3551" t="n">
+        <v>184373</v>
+      </c>
+      <c r="G3551" t="n">
+        <v>-0.8958566629339306</v>
+      </c>
+    </row>
+    <row r="3552">
+      <c r="A3552" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B3552" t="n">
+        <v>175200</v>
+      </c>
+      <c r="C3552" t="n">
+        <v>178700</v>
+      </c>
+      <c r="D3552" t="n">
+        <v>175100</v>
+      </c>
+      <c r="E3552" t="n">
+        <v>178000</v>
+      </c>
+      <c r="F3552" t="n">
+        <v>108193</v>
+      </c>
+      <c r="G3552" t="n">
+        <v>0.5649717514124294</v>
+      </c>
+    </row>
+    <row r="3553">
+      <c r="A3553" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B3553" t="n">
+        <v>176600</v>
+      </c>
+      <c r="C3553" t="n">
+        <v>177700</v>
+      </c>
+      <c r="D3553" t="n">
+        <v>174400</v>
+      </c>
+      <c r="E3553" t="n">
+        <v>175500</v>
+      </c>
+      <c r="F3553" t="n">
+        <v>121539</v>
+      </c>
+      <c r="G3553" t="n">
+        <v>-1.404494382022472</v>
+      </c>
+    </row>
+    <row r="3554">
+      <c r="A3554" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B3554" t="n">
+        <v>177800</v>
+      </c>
+      <c r="C3554" t="n">
+        <v>181600</v>
+      </c>
+      <c r="D3554" t="n">
+        <v>176400</v>
+      </c>
+      <c r="E3554" t="n">
+        <v>179200</v>
+      </c>
+      <c r="F3554" t="n">
+        <v>133828</v>
+      </c>
+      <c r="G3554" t="n">
+        <v>2.108262108262108</v>
+      </c>
+    </row>
+    <row r="3555">
+      <c r="A3555" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B3555" t="n">
+        <v>176500</v>
+      </c>
+      <c r="C3555" t="n">
+        <v>179200</v>
+      </c>
+      <c r="D3555" t="n">
+        <v>175400</v>
+      </c>
+      <c r="E3555" t="n">
+        <v>175700</v>
+      </c>
+      <c r="F3555" t="n">
+        <v>81260</v>
+      </c>
+      <c r="G3555" t="n">
+        <v>-1.953125</v>
+      </c>
+    </row>
+    <row r="3556">
+      <c r="A3556" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B3556" t="n">
+        <v>175200</v>
+      </c>
+      <c r="C3556" t="n">
+        <v>175700</v>
+      </c>
+      <c r="D3556" t="n">
+        <v>171000</v>
+      </c>
+      <c r="E3556" t="n">
+        <v>171700</v>
+      </c>
+      <c r="F3556" t="n">
+        <v>132535</v>
+      </c>
+      <c r="G3556" t="n">
+        <v>-2.276607854297097</v>
+      </c>
+    </row>
+    <row r="3557">
+      <c r="A3557" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B3557" t="n">
+        <v>171900</v>
+      </c>
+      <c r="C3557" t="n">
+        <v>172700</v>
+      </c>
+      <c r="D3557" t="n">
+        <v>166200</v>
+      </c>
+      <c r="E3557" t="n">
+        <v>166700</v>
+      </c>
+      <c r="F3557" t="n">
+        <v>152537</v>
+      </c>
+      <c r="G3557" t="n">
+        <v>-2.9120559114735</v>
+      </c>
+    </row>
+    <row r="3558">
+      <c r="A3558" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B3558" t="n">
+        <v>161500</v>
+      </c>
+      <c r="C3558" t="n">
+        <v>164500</v>
+      </c>
+      <c r="D3558" t="n">
+        <v>160200</v>
+      </c>
+      <c r="E3558" t="n">
+        <v>162600</v>
+      </c>
+      <c r="F3558" t="n">
+        <v>239818</v>
+      </c>
+      <c r="G3558" t="n">
+        <v>-2.459508098380324</v>
+      </c>
+    </row>
+    <row r="3559">
+      <c r="A3559" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B3559" t="n">
+        <v>161000</v>
+      </c>
+      <c r="C3559" t="n">
+        <v>163600</v>
+      </c>
+      <c r="D3559" t="n">
+        <v>159100</v>
+      </c>
+      <c r="E3559" t="n">
+        <v>161400</v>
+      </c>
+      <c r="F3559" t="n">
+        <v>124502</v>
+      </c>
+      <c r="G3559" t="n">
+        <v>-0.7380073800738007</v>
+      </c>
+    </row>
+    <row r="3560">
+      <c r="A3560" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B3560" t="n">
+        <v>160600</v>
+      </c>
+      <c r="C3560" t="n">
+        <v>166900</v>
+      </c>
+      <c r="D3560" t="n">
+        <v>159500</v>
+      </c>
+      <c r="E3560" t="n">
+        <v>164900</v>
+      </c>
+      <c r="F3560" t="n">
+        <v>99908</v>
+      </c>
+      <c r="G3560" t="n">
+        <v>2.168525402726146</v>
+      </c>
+    </row>
+    <row r="3561">
+      <c r="A3561" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B3561" t="n">
+        <v>163000</v>
+      </c>
+      <c r="C3561" t="n">
+        <v>163800</v>
+      </c>
+      <c r="D3561" t="n">
+        <v>159800</v>
+      </c>
+      <c r="E3561" t="n">
+        <v>160000</v>
+      </c>
+      <c r="F3561" t="n">
+        <v>118532</v>
+      </c>
+      <c r="G3561" t="n">
+        <v>-2.971497877501516</v>
+      </c>
+    </row>
+    <row r="3562">
+      <c r="A3562" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B3562" t="n">
+        <v>160100</v>
+      </c>
+      <c r="C3562" t="n">
+        <v>162400</v>
+      </c>
+      <c r="D3562" t="n">
+        <v>156400</v>
+      </c>
+      <c r="E3562" t="n">
+        <v>157000</v>
+      </c>
+      <c r="F3562" t="n">
+        <v>217062</v>
+      </c>
+      <c r="G3562" t="n">
+        <v>-1.875</v>
+      </c>
+    </row>
+    <row r="3563">
+      <c r="A3563" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B3563" t="n">
+        <v>157000</v>
+      </c>
+      <c r="C3563" t="n">
+        <v>159400</v>
+      </c>
+      <c r="D3563" t="n">
+        <v>156300</v>
+      </c>
+      <c r="E3563" t="n">
+        <v>156800</v>
+      </c>
+      <c r="F3563" t="n">
+        <v>113415</v>
+      </c>
+      <c r="G3563" t="n">
+        <v>-0.1273885350318471</v>
+      </c>
+    </row>
+    <row r="3564">
+      <c r="A3564" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B3564" t="n">
+        <v>155100</v>
+      </c>
+      <c r="C3564" t="n">
+        <v>157500</v>
+      </c>
+      <c r="D3564" t="n">
+        <v>153400</v>
+      </c>
+      <c r="E3564" t="n">
+        <v>155500</v>
+      </c>
+      <c r="F3564" t="n">
+        <v>118931</v>
+      </c>
+      <c r="G3564" t="n">
+        <v>-0.8290816326530612</v>
+      </c>
+    </row>
+    <row r="3565">
+      <c r="A3565" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B3565" t="n">
+        <v>158800</v>
+      </c>
+      <c r="C3565" t="n">
+        <v>164500</v>
+      </c>
+      <c r="D3565" t="n">
+        <v>156600</v>
+      </c>
+      <c r="E3565" t="n">
+        <v>162100</v>
+      </c>
+      <c r="F3565" t="n">
+        <v>150373</v>
+      </c>
+      <c r="G3565" t="n">
+        <v>4.244372990353698</v>
+      </c>
+    </row>
+    <row r="3566">
+      <c r="A3566" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B3566" t="n">
+        <v>163700</v>
+      </c>
+      <c r="C3566" t="n">
+        <v>164000</v>
+      </c>
+      <c r="D3566" t="n">
+        <v>160700</v>
+      </c>
+      <c r="E3566" t="n">
+        <v>160700</v>
+      </c>
+      <c r="F3566" t="n">
+        <v>82638</v>
+      </c>
+      <c r="G3566" t="n">
+        <v>-0.8636644046884639</v>
+      </c>
+    </row>
+    <row r="3567">
+      <c r="A3567" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B3567" t="n">
+        <v>162500</v>
+      </c>
+      <c r="C3567" t="n">
+        <v>164200</v>
+      </c>
+      <c r="D3567" t="n">
+        <v>161500</v>
+      </c>
+      <c r="E3567" t="n">
+        <v>162000</v>
+      </c>
+      <c r="F3567" t="n">
+        <v>97195</v>
+      </c>
+      <c r="G3567" t="n">
+        <v>0.8089607965152459</v>
+      </c>
+    </row>
+    <row r="3568">
+      <c r="A3568" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B3568" t="n">
+        <v>160400</v>
+      </c>
+      <c r="C3568" t="n">
+        <v>165600</v>
+      </c>
+      <c r="D3568" t="n">
+        <v>160300</v>
+      </c>
+      <c r="E3568" t="n">
+        <v>161300</v>
+      </c>
+      <c r="F3568" t="n">
+        <v>99545</v>
+      </c>
+      <c r="G3568" t="n">
+        <v>-0.4320987654320987</v>
+      </c>
+    </row>
+    <row r="3569">
+      <c r="A3569" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B3569" t="n">
+        <v>162200</v>
+      </c>
+      <c r="C3569" t="n">
+        <v>164500</v>
+      </c>
+      <c r="D3569" t="n">
+        <v>160400</v>
+      </c>
+      <c r="E3569" t="n">
+        <v>163400</v>
+      </c>
+      <c r="F3569" t="n">
+        <v>56165</v>
+      </c>
+      <c r="G3569" t="n">
+        <v>1.301921884686919</v>
+      </c>
+    </row>
+    <row r="3570">
+      <c r="A3570" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B3570" t="n">
+        <v>168500</v>
+      </c>
+      <c r="C3570" t="n">
+        <v>169800</v>
+      </c>
+      <c r="D3570" t="n">
+        <v>164400</v>
+      </c>
+      <c r="E3570" t="n">
+        <v>168900</v>
+      </c>
+      <c r="F3570" t="n">
+        <v>112819</v>
+      </c>
+      <c r="G3570" t="n">
+        <v>3.365973072215422</v>
+      </c>
+    </row>
+    <row r="3571">
+      <c r="A3571" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B3571" t="n">
+        <v>167400</v>
+      </c>
+      <c r="C3571" t="n">
+        <v>169500</v>
+      </c>
+      <c r="D3571" t="n">
+        <v>166000</v>
+      </c>
+      <c r="E3571" t="n">
+        <v>166000</v>
+      </c>
+      <c r="F3571" t="n">
+        <v>113834</v>
+      </c>
+      <c r="G3571" t="n">
+        <v>-1.716992303137951</v>
+      </c>
+    </row>
+    <row r="3572">
+      <c r="A3572" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B3572" t="n">
+        <v>164800</v>
+      </c>
+      <c r="C3572" t="n">
+        <v>166500</v>
+      </c>
+      <c r="D3572" t="n">
+        <v>160900</v>
+      </c>
+      <c r="E3572" t="n">
+        <v>162000</v>
+      </c>
+      <c r="F3572" t="n">
+        <v>107561</v>
+      </c>
+      <c r="G3572" t="n">
+        <v>-2.409638554216868</v>
+      </c>
+    </row>
+    <row r="3573">
+      <c r="A3573" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B3573" t="n">
+        <v>162600</v>
+      </c>
+      <c r="C3573" t="n">
+        <v>162700</v>
+      </c>
+      <c r="D3573" t="n">
+        <v>160200</v>
+      </c>
+      <c r="E3573" t="n">
+        <v>160500</v>
+      </c>
+      <c r="F3573" t="n">
+        <v>93507</v>
+      </c>
+      <c r="G3573" t="n">
+        <v>-0.9259259259259258</v>
+      </c>
+    </row>
+    <row r="3574">
+      <c r="A3574" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B3574" t="n">
+        <v>161800</v>
+      </c>
+      <c r="C3574" t="n">
+        <v>164900</v>
+      </c>
+      <c r="D3574" t="n">
+        <v>160400</v>
+      </c>
+      <c r="E3574" t="n">
+        <v>164900</v>
+      </c>
+      <c r="F3574" t="n">
+        <v>122740</v>
+      </c>
+      <c r="G3574" t="n">
+        <v>2.741433021806853</v>
+      </c>
+    </row>
+    <row r="3575">
+      <c r="A3575" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B3575" t="n">
+        <v>165200</v>
+      </c>
+      <c r="C3575" t="n">
+        <v>165700</v>
+      </c>
+      <c r="D3575" t="n">
+        <v>163000</v>
+      </c>
+      <c r="E3575" t="n">
+        <v>164800</v>
+      </c>
+      <c r="F3575" t="n">
+        <v>72644</v>
+      </c>
+      <c r="G3575" t="n">
+        <v>-0.06064281382656155</v>
+      </c>
+    </row>
+    <row r="3576">
+      <c r="A3576" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B3576" t="n">
+        <v>164800</v>
+      </c>
+      <c r="C3576" t="n">
+        <v>165000</v>
+      </c>
+      <c r="D3576" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E3576" t="n">
+        <v>160000</v>
+      </c>
+      <c r="F3576" t="n">
+        <v>151160</v>
+      </c>
+      <c r="G3576" t="n">
+        <v>-2.912621359223301</v>
+      </c>
+    </row>
+    <row r="3577">
+      <c r="A3577" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B3577" t="n">
+        <v>161500</v>
+      </c>
+      <c r="C3577" t="n">
+        <v>164000</v>
+      </c>
+      <c r="D3577" t="n">
+        <v>161400</v>
+      </c>
+      <c r="E3577" t="n">
+        <v>163500</v>
+      </c>
+      <c r="F3577" t="n">
+        <v>80778</v>
+      </c>
+      <c r="G3577" t="n">
+        <v>2.1875</v>
+      </c>
+    </row>
+    <row r="3578">
+      <c r="A3578" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B3578" t="n">
+        <v>164100</v>
+      </c>
+      <c r="C3578" t="n">
+        <v>164100</v>
+      </c>
+      <c r="D3578" t="n">
+        <v>161100</v>
+      </c>
+      <c r="E3578" t="n">
+        <v>161800</v>
+      </c>
+      <c r="F3578" t="n">
+        <v>74390</v>
+      </c>
+      <c r="G3578" t="n">
+        <v>-1.039755351681957</v>
+      </c>
+    </row>
+    <row r="3579">
+      <c r="A3579" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B3579" t="n">
+        <v>162200</v>
+      </c>
+      <c r="C3579" t="n">
+        <v>163300</v>
+      </c>
+      <c r="D3579" t="n">
+        <v>161500</v>
+      </c>
+      <c r="E3579" t="n">
+        <v>162800</v>
+      </c>
+      <c r="F3579" t="n">
+        <v>78090</v>
+      </c>
+      <c r="G3579" t="n">
+        <v>0.6180469715698393</v>
+      </c>
+    </row>
+    <row r="3580">
+      <c r="A3580" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B3580" t="n">
+        <v>164900</v>
+      </c>
+      <c r="C3580" t="n">
+        <v>166800</v>
+      </c>
+      <c r="D3580" t="n">
+        <v>163100</v>
+      </c>
+      <c r="E3580" t="n">
+        <v>163400</v>
+      </c>
+      <c r="F3580" t="n">
+        <v>130682</v>
+      </c>
+      <c r="G3580" t="n">
+        <v>0.3685503685503685</v>
+      </c>
+    </row>
+    <row r="3581">
+      <c r="A3581" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B3581" t="n">
+        <v>163100</v>
+      </c>
+      <c r="C3581" t="n">
+        <v>163800</v>
+      </c>
+      <c r="D3581" t="n">
+        <v>156900</v>
+      </c>
+      <c r="E3581" t="n">
+        <v>156900</v>
+      </c>
+      <c r="F3581" t="n">
+        <v>256782</v>
+      </c>
+      <c r="G3581" t="n">
+        <v>-3.97796817625459</v>
+      </c>
+    </row>
+    <row r="3582">
+      <c r="A3582" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B3582" t="n">
+        <v>156800</v>
+      </c>
+      <c r="C3582" t="n">
+        <v>158500</v>
+      </c>
+      <c r="D3582" t="n">
+        <v>155400</v>
+      </c>
+      <c r="E3582" t="n">
+        <v>156300</v>
+      </c>
+      <c r="F3582" t="n">
+        <v>120933</v>
+      </c>
+      <c r="G3582" t="n">
+        <v>-0.3824091778202677</v>
+      </c>
+    </row>
+    <row r="3583">
+      <c r="A3583" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B3583" t="n">
+        <v>155100</v>
+      </c>
+      <c r="C3583" t="n">
+        <v>155900</v>
+      </c>
+      <c r="D3583" t="n">
+        <v>150900</v>
+      </c>
+      <c r="E3583" t="n">
+        <v>151400</v>
+      </c>
+      <c r="F3583" t="n">
+        <v>199525</v>
+      </c>
+      <c r="G3583" t="n">
+        <v>-3.134996801023673</v>
       </c>
     </row>
   </sheetData>
